--- a/Python/Automation/Excel/data/2/A_Write.xlsx
+++ b/Python/Automation/Excel/data/2/A_Write.xlsx
@@ -433,8 +433,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Direction</t>
+        </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
